--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_174.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_174.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1539473684210526</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_67</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1831501831501831</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'D']]</t>
+          <t>[['D:7', 'G:maj', 'D:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(51.85331, 57.05458)]</t>
+          <t>[['C:7', 'F', 'C:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.979342, 15.029682)]</t>
+          <t>[('0:00:11.380000', '0:00:19.180000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+          <t>[('0:00:24.120000', '0:00:27')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07672413793103448</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F:min', 'C:7/F', 'F:min'], ['F:min', 'C:maj/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.36, 18.44)]</t>
+          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(85.58, 94.24)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:14.920000', '0:00:20.760000'), ('0:00:05.840000', '0:00:12.720000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:24.180000', '0:00:27.660000'), ('0:00:13.720000', '0:00:18.340000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.194331983805668</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'C:min', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0945054945054945</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'B:maj']]</t>
+          <t>[['F:maj', 'F:7/D#', 'A#:maj/D'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj', 'C:7/A#', 'F:maj/A'], ['C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(54.639, 59.554)]</t>
+          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#'], ['D#:maj/A#', 'A#:7', 'D#:maj'], ['A#:7', 'D#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(5.92, 9.54)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:56.440000', '0:01:05.460000'), ('0:01:01.680000', '0:01:07.260000'), ('0:01:14.900000', '0:01:26.120000'), ('0:00:06.380000', '0:00:12.500000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:17.980000', '0:00:26.320000'), ('0:01:03.460000', '0:01:05.780000'), ('0:01:05.280000', '0:01:11'), ('0:01:05.780000', '0:01:14.480000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_85</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2002224694104561</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:dim7', 'Ab/5', 'F:7', 'Bb:7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:dim7', 'Ab', 'F:7', 'Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>[['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(21.98, 25.87)]</t>
+          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(19.16, 23.23)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:05.940000', '0:00:25.280000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:55.820000', '0:01:04.420000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06255060728744939</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'G:7', 'C']]</t>
-        </is>
+          <t>isophonics_51</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09441489361702127</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
+          <t>[['F', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(51.641107, 57.139232)]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(60.8, 69.04)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:25.687641', '0:00:32.084739')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:52.750498', '0:00:59.809365')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1231527093596059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Ab']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A/b7']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(86.64, 90.6)]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(36.173061, 41.86195)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_83</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04642857142857143</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'D:7/C']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'A:7']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(244.94, 252.62)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.56, 4.06)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(51.839081, 63.042709)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(145.04, 147.86)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3080357142857143</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(40.49, 47.86)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(57.251357, 73.909779)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(72.82, 84.38)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(17.48, 20.74)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:03.200000', '0:01:13.120000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3106060606060606</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7/G', 'D:maj/F#', 'D:maj/A'], ['A:7', 'D:maj', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab'], ['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(220.96, 232.16), (19.5, 41.74)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(66.93, 74.44), (80.08, 87.62)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:24.280000', '0:00:44.360000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2392857142857143</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:45.260000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1122994652406417</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:maj', 'F:maj']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.405827, 17.850907)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(138.21, 142.877)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:14.520000', '0:00:59.640000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08247800586510264</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B', 'B', 'B/7'], ['F#', 'B', 'B/7']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D', 'D/7', 'D/6'], ['A', 'D', 'D/7']]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(9.480113, 15.412811), (37.936167, 41.77907)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(11.500249, 13.311405), (10.560212, 12.866913)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2385964912280702</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C', 'G']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(133.78, 135.34)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.336043, 30.271443)]</t>
+          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_96</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(68.54, 79.0), (68.04, 74.94)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.76, 14.32), (19.78, 23.12)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
